--- a/Data/Lactobacillus_GENREs.xlsx
+++ b/Data/Lactobacillus_GENREs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\Lactic_Acid_Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\repos\Lactobacillus\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="10875" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="10875" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Marketed Probiotics" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="540">
   <si>
     <t>Species</t>
   </si>
@@ -1827,6 +1827,12 @@
   </si>
   <si>
     <t>PATRIC Mouse/Rat</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Human related missing from this list:</t>
   </si>
 </sst>
 </file>
@@ -1905,12 +1911,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -2062,7 +2074,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2100,6 +2112,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,17 +2144,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2437,7 +2451,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="40" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2446,7 +2460,7 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
         <v>140</v>
       </c>
@@ -2458,7 +2472,7 @@
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="25" t="s">
         <v>141</v>
       </c>
@@ -2470,7 +2484,7 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="25" t="s">
         <v>50</v>
       </c>
@@ -2490,7 +2504,7 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="25" t="s">
         <v>52</v>
       </c>
@@ -2502,7 +2516,7 @@
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="25" t="s">
         <v>71</v>
       </c>
@@ -2514,7 +2528,7 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="25" t="s">
         <v>72</v>
       </c>
@@ -2526,7 +2540,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="25" t="s">
         <v>70</v>
       </c>
@@ -2538,7 +2552,7 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="25" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +2570,7 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="25" t="s">
         <v>53</v>
       </c>
@@ -2568,7 +2582,7 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="25" t="s">
         <v>143</v>
       </c>
@@ -2580,7 +2594,7 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
@@ -2594,7 +2608,7 @@
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="25" t="s">
         <v>60</v>
       </c>
@@ -2606,7 +2620,7 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="25" t="s">
         <v>168</v>
       </c>
@@ -2618,7 +2632,7 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="25" t="s">
         <v>162</v>
       </c>
@@ -2630,7 +2644,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="25" t="s">
         <v>170</v>
       </c>
@@ -2642,7 +2656,7 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="25" t="s">
         <v>56</v>
       </c>
@@ -2654,7 +2668,7 @@
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="25" t="s">
         <v>61</v>
       </c>
@@ -2666,7 +2680,7 @@
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="25" t="s">
         <v>55</v>
       </c>
@@ -2678,7 +2692,7 @@
       <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="25" t="s">
         <v>57</v>
       </c>
@@ -2690,7 +2704,7 @@
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="25" t="s">
         <v>171</v>
       </c>
@@ -2702,7 +2716,7 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="25" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +2728,7 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="25" t="s">
         <v>142</v>
       </c>
@@ -2728,7 +2742,7 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="25" t="s">
         <v>63</v>
       </c>
@@ -2740,7 +2754,7 @@
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="25" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +2766,7 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
@@ -2764,7 +2778,7 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="25" t="s">
         <v>64</v>
       </c>
@@ -2778,7 +2792,7 @@
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="25" t="s">
         <v>58</v>
       </c>
@@ -2792,7 +2806,7 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="25" t="s">
         <v>159</v>
       </c>
@@ -2806,7 +2820,7 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="25" t="s">
         <v>3</v>
       </c>
@@ -2820,7 +2834,7 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="25" t="s">
         <v>62</v>
       </c>
@@ -2843,7 +2857,7 @@
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="40" t="s">
         <v>188</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -2857,7 +2871,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="25" t="s">
         <v>69</v>
       </c>
@@ -2869,7 +2883,7 @@
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="25" t="s">
         <v>66</v>
       </c>
@@ -2881,7 +2895,7 @@
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="25" t="s">
         <v>67</v>
       </c>
@@ -2893,7 +2907,7 @@
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="25" t="s">
         <v>172</v>
       </c>
@@ -2905,7 +2919,7 @@
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="25" t="s">
         <v>75</v>
       </c>
@@ -2917,7 +2931,7 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="25" t="s">
         <v>76</v>
       </c>
@@ -2929,7 +2943,7 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="25" t="s">
         <v>74</v>
       </c>
@@ -2941,7 +2955,7 @@
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="25" t="s">
         <v>73</v>
       </c>
@@ -2953,7 +2967,7 @@
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="25" t="s">
         <v>77</v>
       </c>
@@ -3029,19 +3043,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>392</v>
       </c>
@@ -3049,248 +3064,467 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>331</v>
       </c>
       <c r="B2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>336</v>
       </c>
       <c r="B3">
         <v>240</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="C3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3">
+        <v>240</v>
+      </c>
+      <c r="K3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>353</v>
       </c>
       <c r="B4">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="C4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>356</v>
       </c>
       <c r="B5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="C5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>339</v>
       </c>
       <c r="B6">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>335</v>
       </c>
       <c r="B7">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>358</v>
       </c>
       <c r="B8">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>344</v>
       </c>
       <c r="B9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>374</v>
       </c>
       <c r="B10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="C10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>342</v>
       </c>
       <c r="B11">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="C11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>332</v>
       </c>
       <c r="B12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>538</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>378</v>
       </c>
       <c r="B13">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="C13" t="s">
+        <v>538</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>386</v>
       </c>
       <c r="B14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G14" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>357</v>
       </c>
       <c r="B15">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="C15" t="s">
+        <v>538</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>525</v>
       </c>
       <c r="B16">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="G16" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="38">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>383</v>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="C17" t="s">
+        <v>538</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="38">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="C18" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="38">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="G19" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>333</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="C20" t="s">
+        <v>538</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>516</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="G21" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="38">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="G22" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
         <v>461</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
         <v>359</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="C24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>337</v>
       </c>
       <c r="B25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="C25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="38">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="C26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>377</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="C27" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>389</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>420</v>
       </c>
       <c r="B29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>380</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>471</v>
       </c>
       <c r="B32">
@@ -3298,15 +3532,15 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="39" t="s">
         <v>416</v>
       </c>
       <c r="B34">
@@ -3322,7 +3556,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="39" t="s">
         <v>486</v>
       </c>
       <c r="B36">
@@ -3330,7 +3564,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="39" t="s">
         <v>429</v>
       </c>
       <c r="B37">
@@ -3338,7 +3572,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="39" t="s">
         <v>437</v>
       </c>
       <c r="B38">
@@ -3346,7 +3580,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="39" t="s">
         <v>352</v>
       </c>
       <c r="B39">
@@ -3354,15 +3588,15 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="39" t="s">
         <v>433</v>
       </c>
       <c r="B41">
@@ -3378,7 +3612,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="39" t="s">
         <v>462</v>
       </c>
       <c r="B43">
@@ -3386,15 +3620,15 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="35" t="s">
         <v>514</v>
       </c>
       <c r="B45">
@@ -3402,15 +3636,15 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="34" t="s">
         <v>372</v>
       </c>
       <c r="B47">
@@ -3418,7 +3652,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="39" t="s">
         <v>432</v>
       </c>
       <c r="B48">
@@ -3426,7 +3660,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="35" t="s">
         <v>382</v>
       </c>
       <c r="B49">
@@ -3442,31 +3676,31 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="B51" s="45">
+      <c r="B51" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="39" t="s">
         <v>419</v>
       </c>
       <c r="B54">
@@ -3474,7 +3708,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="39" t="s">
         <v>422</v>
       </c>
       <c r="B55">
@@ -3482,7 +3716,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="39" t="s">
         <v>427</v>
       </c>
       <c r="B56">
@@ -3490,7 +3724,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="39" t="s">
         <v>444</v>
       </c>
       <c r="B57">
@@ -3498,7 +3732,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="39" t="s">
         <v>448</v>
       </c>
       <c r="B58">
@@ -3506,7 +3740,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="39" t="s">
         <v>454</v>
       </c>
       <c r="B59">
@@ -3514,7 +3748,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="35" t="s">
         <v>381</v>
       </c>
       <c r="B60">
@@ -3522,7 +3756,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="39" t="s">
         <v>464</v>
       </c>
       <c r="B61">
@@ -3530,7 +3764,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="39" t="s">
         <v>474</v>
       </c>
       <c r="B62">
@@ -3538,7 +3772,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="39" t="s">
         <v>483</v>
       </c>
       <c r="B63">
@@ -3546,7 +3780,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="39" t="s">
         <v>484</v>
       </c>
       <c r="B64">
@@ -3554,7 +3788,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="30" t="s">
         <v>384</v>
       </c>
       <c r="B65">
@@ -3562,7 +3796,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="39" t="s">
         <v>351</v>
       </c>
       <c r="B66">
@@ -3570,7 +3804,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="39" t="s">
         <v>494</v>
       </c>
       <c r="B67">
@@ -3578,7 +3812,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="39" t="s">
         <v>496</v>
       </c>
       <c r="B68">
@@ -3586,7 +3820,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="35" t="s">
         <v>385</v>
       </c>
       <c r="B69">
@@ -3594,7 +3828,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="39" t="s">
         <v>531</v>
       </c>
       <c r="B70">
@@ -3602,15 +3836,15 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="B71" s="45">
+      <c r="B71" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="39" t="s">
         <v>413</v>
       </c>
       <c r="B72">
@@ -3634,7 +3868,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="39" t="s">
         <v>425</v>
       </c>
       <c r="B75">
@@ -3642,7 +3876,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="39" t="s">
         <v>426</v>
       </c>
       <c r="B76">
@@ -3650,7 +3884,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="46" t="s">
+      <c r="A77" s="39" t="s">
         <v>428</v>
       </c>
       <c r="B77">
@@ -3658,7 +3892,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="39" t="s">
         <v>431</v>
       </c>
       <c r="B78">
@@ -3666,7 +3900,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="30" t="s">
         <v>375</v>
       </c>
       <c r="B79">
@@ -3674,7 +3908,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="46" t="s">
+      <c r="A80" s="39" t="s">
         <v>458</v>
       </c>
       <c r="B80">
@@ -3690,7 +3924,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="39" t="s">
         <v>465</v>
       </c>
       <c r="B82">
@@ -3698,7 +3932,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="39" t="s">
         <v>473</v>
       </c>
       <c r="B83">
@@ -3706,7 +3940,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="39" t="s">
         <v>475</v>
       </c>
       <c r="B84">
@@ -3714,7 +3948,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="39" t="s">
         <v>476</v>
       </c>
       <c r="B85">
@@ -3722,7 +3956,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="46" t="s">
+      <c r="A86" s="39" t="s">
         <v>479</v>
       </c>
       <c r="B86">
@@ -3730,7 +3964,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="39" t="s">
         <v>480</v>
       </c>
       <c r="B87">
@@ -3738,7 +3972,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="39" t="s">
         <v>481</v>
       </c>
       <c r="B88">
@@ -3746,7 +3980,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="39" t="s">
         <v>482</v>
       </c>
       <c r="B89">
@@ -3754,7 +3988,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="39" t="s">
         <v>492</v>
       </c>
       <c r="B90">
@@ -3762,7 +3996,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="39" t="s">
         <v>491</v>
       </c>
       <c r="B91">
@@ -3778,7 +4012,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="35" t="s">
         <v>387</v>
       </c>
       <c r="B93">
@@ -3786,7 +4020,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="39" t="s">
         <v>498</v>
       </c>
       <c r="B94">
@@ -3794,7 +4028,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="39" t="s">
         <v>500</v>
       </c>
       <c r="B95">
@@ -3802,7 +4036,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="35" t="s">
         <v>388</v>
       </c>
       <c r="B96">
@@ -3810,7 +4044,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="39" t="s">
         <v>501</v>
       </c>
       <c r="B97">
@@ -3818,7 +4052,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="39" t="s">
         <v>502</v>
       </c>
       <c r="B98">
@@ -3826,7 +4060,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="39" t="s">
         <v>504</v>
       </c>
       <c r="B99">
@@ -3834,7 +4068,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="39" t="s">
         <v>507</v>
       </c>
       <c r="B100">
@@ -3842,7 +4076,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="s">
+      <c r="A101" s="35" t="s">
         <v>390</v>
       </c>
       <c r="B101">
@@ -3850,7 +4084,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="39" t="s">
         <v>521</v>
       </c>
       <c r="B102">
@@ -3858,7 +4092,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="39" t="s">
         <v>524</v>
       </c>
       <c r="B103">
@@ -3866,7 +4100,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="39" t="s">
         <v>526</v>
       </c>
       <c r="B104">
@@ -3874,7 +4108,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
+      <c r="A105" s="35" t="s">
         <v>391</v>
       </c>
       <c r="B105">
@@ -3882,7 +4116,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="39" t="s">
         <v>534</v>
       </c>
       <c r="B106">
@@ -3890,87 +4124,87 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="B107" s="46">
+      <c r="B107" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="45" t="s">
+      <c r="A108" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B108" s="45">
+      <c r="B108" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="45" t="s">
+      <c r="A109" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="B109" s="45">
+      <c r="B109" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="B110" s="45">
+      <c r="B110" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="B111" s="45">
+      <c r="B111" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="B112" s="45">
+      <c r="B112" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="41" t="s">
+      <c r="A113" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B113" s="45">
+      <c r="B113" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="B114" s="45">
+      <c r="B114" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="B115" s="45">
+      <c r="B115" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="B116" s="45">
+      <c r="B116" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="39" t="s">
         <v>412</v>
       </c>
       <c r="B117">
@@ -3978,7 +4212,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="39" t="s">
         <v>414</v>
       </c>
       <c r="B118">
@@ -3986,7 +4220,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="39" t="s">
         <v>418</v>
       </c>
       <c r="B119">
@@ -3994,7 +4228,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="46" t="s">
+      <c r="A120" s="39" t="s">
         <v>417</v>
       </c>
       <c r="B120">
@@ -4002,7 +4236,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="39" t="s">
         <v>421</v>
       </c>
       <c r="B121">
@@ -4010,7 +4244,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="39" t="s">
         <v>423</v>
       </c>
       <c r="B122">
@@ -4018,7 +4252,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="46" t="s">
+      <c r="A123" s="39" t="s">
         <v>424</v>
       </c>
       <c r="B123">
@@ -4026,7 +4260,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="39" t="s">
         <v>430</v>
       </c>
       <c r="B124">
@@ -4034,7 +4268,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="39" t="s">
         <v>434</v>
       </c>
       <c r="B125">
@@ -4042,7 +4276,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="39" t="s">
         <v>435</v>
       </c>
       <c r="B126">
@@ -4050,7 +4284,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="39" t="s">
         <v>436</v>
       </c>
       <c r="B127">
@@ -4058,7 +4292,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="46" t="s">
+      <c r="A128" s="39" t="s">
         <v>442</v>
       </c>
       <c r="B128">
@@ -4066,7 +4300,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="39" t="s">
         <v>441</v>
       </c>
       <c r="B129">
@@ -4074,7 +4308,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="39" t="s">
         <v>440</v>
       </c>
       <c r="B130">
@@ -4082,7 +4316,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="46" t="s">
+      <c r="A131" s="39" t="s">
         <v>439</v>
       </c>
       <c r="B131">
@@ -4090,7 +4324,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="39" t="s">
         <v>438</v>
       </c>
       <c r="B132">
@@ -4106,7 +4340,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="39" t="s">
         <v>443</v>
       </c>
       <c r="B134">
@@ -4114,7 +4348,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="39" t="s">
         <v>445</v>
       </c>
       <c r="B135">
@@ -4122,7 +4356,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="39" t="s">
         <v>446</v>
       </c>
       <c r="B136">
@@ -4130,7 +4364,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="39" t="s">
         <v>447</v>
       </c>
       <c r="B137">
@@ -4138,7 +4372,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="39" t="s">
         <v>450</v>
       </c>
       <c r="B138">
@@ -4146,7 +4380,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="46" t="s">
+      <c r="A139" s="39" t="s">
         <v>449</v>
       </c>
       <c r="B139">
@@ -4162,7 +4396,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="39" t="s">
         <v>451</v>
       </c>
       <c r="B141">
@@ -4170,7 +4404,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="46" t="s">
+      <c r="A142" s="39" t="s">
         <v>452</v>
       </c>
       <c r="B142">
@@ -4178,7 +4412,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="39" t="s">
         <v>453</v>
       </c>
       <c r="B143">
@@ -4194,7 +4428,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="39" t="s">
         <v>459</v>
       </c>
       <c r="B145">
@@ -4202,7 +4436,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="39" t="s">
         <v>457</v>
       </c>
       <c r="B146">
@@ -4210,7 +4444,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="39" t="s">
         <v>456</v>
       </c>
       <c r="B147">
@@ -4218,7 +4452,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="46" t="s">
+      <c r="A148" s="39" t="s">
         <v>460</v>
       </c>
       <c r="B148">
@@ -4226,7 +4460,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="39" t="s">
         <v>463</v>
       </c>
       <c r="B149">
@@ -4234,7 +4468,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="39" t="s">
         <v>466</v>
       </c>
       <c r="B150">
@@ -4242,7 +4476,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="39" t="s">
         <v>467</v>
       </c>
       <c r="B151">
@@ -4250,7 +4484,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="46" t="s">
+      <c r="A152" s="39" t="s">
         <v>468</v>
       </c>
       <c r="B152">
@@ -4258,7 +4492,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="39" t="s">
         <v>469</v>
       </c>
       <c r="B153">
@@ -4266,7 +4500,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="46" t="s">
+      <c r="A154" s="39" t="s">
         <v>470</v>
       </c>
       <c r="B154">
@@ -4274,7 +4508,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="39" t="s">
         <v>472</v>
       </c>
       <c r="B155">
@@ -4282,7 +4516,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="46" t="s">
+      <c r="A156" s="39" t="s">
         <v>477</v>
       </c>
       <c r="B156">
@@ -4290,7 +4524,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="39" t="s">
         <v>478</v>
       </c>
       <c r="B157">
@@ -4298,7 +4532,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="39" t="s">
         <v>487</v>
       </c>
       <c r="B158">
@@ -4306,7 +4540,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="39" t="s">
         <v>488</v>
       </c>
       <c r="B159">
@@ -4314,7 +4548,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B160">
@@ -4322,7 +4556,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="46" t="s">
+      <c r="A161" s="39" t="s">
         <v>493</v>
       </c>
       <c r="B161">
@@ -4330,7 +4564,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B162">
@@ -4338,7 +4572,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="39" t="s">
         <v>495</v>
       </c>
       <c r="B163">
@@ -4346,7 +4580,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="39" t="s">
         <v>499</v>
       </c>
       <c r="B164">
@@ -4354,7 +4588,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="46" t="s">
+      <c r="A165" s="39" t="s">
         <v>503</v>
       </c>
       <c r="B165">
@@ -4362,7 +4596,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="46" t="s">
+      <c r="A166" s="39" t="s">
         <v>505</v>
       </c>
       <c r="B166">
@@ -4370,7 +4604,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="46" t="s">
+      <c r="A167" s="39" t="s">
         <v>506</v>
       </c>
       <c r="B167">
@@ -4378,7 +4612,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="46" t="s">
+      <c r="A168" s="39" t="s">
         <v>511</v>
       </c>
       <c r="B168">
@@ -4386,7 +4620,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="46" t="s">
+      <c r="A169" s="39" t="s">
         <v>510</v>
       </c>
       <c r="B169">
@@ -4394,7 +4628,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="39" t="s">
         <v>509</v>
       </c>
       <c r="B170">
@@ -4402,7 +4636,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="39" t="s">
         <v>508</v>
       </c>
       <c r="B171">
@@ -4410,7 +4644,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="42" t="s">
+      <c r="A172" s="35" t="s">
         <v>512</v>
       </c>
       <c r="B172">
@@ -4418,7 +4652,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="35" t="s">
         <v>513</v>
       </c>
       <c r="B173">
@@ -4426,7 +4660,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="35" t="s">
         <v>515</v>
       </c>
       <c r="B174">
@@ -4434,7 +4668,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="46" t="s">
+      <c r="A175" s="39" t="s">
         <v>517</v>
       </c>
       <c r="B175">
@@ -4442,7 +4676,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="46" t="s">
+      <c r="A176" s="39" t="s">
         <v>518</v>
       </c>
       <c r="B176">
@@ -4450,7 +4684,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="46" t="s">
+      <c r="A177" s="39" t="s">
         <v>519</v>
       </c>
       <c r="B177">
@@ -4458,7 +4692,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="46" t="s">
+      <c r="A178" s="39" t="s">
         <v>520</v>
       </c>
       <c r="B178">
@@ -4466,7 +4700,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="46" t="s">
+      <c r="A179" s="39" t="s">
         <v>522</v>
       </c>
       <c r="B179">
@@ -4474,7 +4708,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="39" t="s">
         <v>523</v>
       </c>
       <c r="B180">
@@ -4482,7 +4716,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="46" t="s">
+      <c r="A181" s="39" t="s">
         <v>527</v>
       </c>
       <c r="B181">
@@ -4490,7 +4724,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="46" t="s">
+      <c r="A182" s="39" t="s">
         <v>528</v>
       </c>
       <c r="B182">
@@ -4498,7 +4732,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="39" t="s">
         <v>529</v>
       </c>
       <c r="B183">
@@ -4506,7 +4740,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="36" t="s">
+      <c r="A184" s="29" t="s">
         <v>340</v>
       </c>
       <c r="B184">
@@ -4514,7 +4748,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="46" t="s">
+      <c r="A185" s="39" t="s">
         <v>530</v>
       </c>
       <c r="B185">
@@ -4522,7 +4756,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="39" t="s">
         <v>532</v>
       </c>
       <c r="B186">
@@ -4530,7 +4764,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="46" t="s">
+      <c r="A187" s="39" t="s">
         <v>533</v>
       </c>
       <c r="B187">
@@ -4558,7 +4792,7 @@
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="46"/>
+      <c r="A193" s="39"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1">
@@ -6032,7 +6266,7 @@
       <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="23"/>
@@ -6048,7 +6282,7 @@
       <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="42"/>
       <c r="F3" s="23"/>
       <c r="G3" s="18" t="s">
         <v>140</v>
@@ -6062,7 +6296,7 @@
       <c r="B4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="42"/>
       <c r="F4" s="23"/>
       <c r="G4" s="18" t="s">
         <v>141</v>
@@ -6076,7 +6310,7 @@
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="42"/>
       <c r="F5" s="23"/>
       <c r="G5" s="20" t="s">
         <v>50</v>
@@ -6101,7 +6335,7 @@
       <c r="B6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="42"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
         <v>52</v>
@@ -6115,7 +6349,7 @@
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="42"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
         <v>71</v>
@@ -6129,7 +6363,7 @@
       <c r="B8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="42"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
         <v>72</v>
@@ -6143,7 +6377,7 @@
       <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="42"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -6157,7 +6391,7 @@
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="42"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
         <v>51</v>
@@ -6179,7 +6413,7 @@
       <c r="B11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="42"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
         <v>53</v>
@@ -6193,7 +6427,7 @@
       <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18" t="s">
         <v>143</v>
@@ -6207,7 +6441,7 @@
       <c r="B13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="42"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>6</v>
@@ -6223,7 +6457,7 @@
       <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="42"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
         <v>60</v>
@@ -6237,7 +6471,7 @@
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="42"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
         <v>168</v>
@@ -6251,7 +6485,7 @@
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="42"/>
       <c r="F16" s="23"/>
       <c r="G16" s="25" t="s">
         <v>162</v>
@@ -6265,7 +6499,7 @@
       <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="42"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23" t="s">
         <v>170</v>
@@ -6279,7 +6513,7 @@
       <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="42"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23" t="s">
         <v>56</v>
@@ -6293,7 +6527,7 @@
       <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="42"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
         <v>61</v>
@@ -6307,7 +6541,7 @@
       <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="42"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
         <v>55</v>
@@ -6321,7 +6555,7 @@
       <c r="B21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="42"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
         <v>57</v>
@@ -6335,7 +6569,7 @@
       <c r="B22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="42"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
         <v>171</v>
@@ -6349,7 +6583,7 @@
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="42"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
         <v>59</v>
@@ -6363,7 +6597,7 @@
       <c r="B24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="42"/>
       <c r="F24" s="23"/>
       <c r="G24" s="18" t="s">
         <v>142</v>
@@ -6379,7 +6613,7 @@
       <c r="B25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="42"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
         <v>63</v>
@@ -6393,7 +6627,7 @@
       <c r="B26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="31"/>
+      <c r="C26" s="42"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
         <v>80</v>
@@ -6407,7 +6641,7 @@
       <c r="B27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="42"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
         <v>79</v>
@@ -6421,7 +6655,7 @@
       <c r="B28" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="31"/>
+      <c r="C28" s="42"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
         <v>64</v>
@@ -6437,7 +6671,7 @@
       <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="42"/>
       <c r="F29" s="23"/>
       <c r="G29" s="20" t="s">
         <v>58</v>
@@ -6453,7 +6687,7 @@
       <c r="B30" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="42"/>
       <c r="F30" s="23"/>
       <c r="G30" s="25" t="s">
         <v>159</v>
@@ -6469,7 +6703,7 @@
       <c r="B31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="42"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23" t="s">
         <v>3</v>
@@ -6485,7 +6719,7 @@
       <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="41" t="s">
         <v>83</v>
       </c>
       <c r="F32" s="23"/>
@@ -6503,7 +6737,7 @@
       <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="42"/>
       <c r="F33" s="23"/>
       <c r="H33" s="23"/>
     </row>
@@ -6514,7 +6748,7 @@
       <c r="B34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="42"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
         <v>68</v>
@@ -6528,7 +6762,7 @@
       <c r="B35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="42"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23" t="s">
         <v>69</v>
@@ -6542,7 +6776,7 @@
       <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="42"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23" t="s">
         <v>66</v>
@@ -6556,7 +6790,7 @@
       <c r="B37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="43"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23" t="s">
         <v>67</v>
@@ -6568,7 +6802,7 @@
       <c r="B38" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="44" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="23"/>
@@ -6582,7 +6816,7 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="45"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23" t="s">
         <v>75</v>
@@ -6594,7 +6828,7 @@
       <c r="B40" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="45"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23" t="s">
         <v>76</v>
@@ -6606,7 +6840,7 @@
       <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="45"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23" t="s">
         <v>74</v>
@@ -6618,7 +6852,7 @@
       <c r="B42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="45"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23" t="s">
         <v>73</v>
@@ -6629,7 +6863,7 @@
       <c r="B43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="34"/>
+      <c r="C43" s="45"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23" t="s">
         <v>77</v>
@@ -6641,7 +6875,7 @@
       <c r="B44" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="45"/>
       <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6649,7 +6883,7 @@
       <c r="B45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="46"/>
       <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6657,7 +6891,7 @@
       <c r="B46" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="41" t="s">
         <v>151</v>
       </c>
       <c r="F46" s="23"/>
@@ -6667,7 +6901,7 @@
       <c r="B47" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="42"/>
       <c r="F47" s="23"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6675,7 +6909,7 @@
       <c r="B48" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="31"/>
+      <c r="C48" s="42"/>
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -6683,7 +6917,7 @@
       <c r="B49" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="31"/>
+      <c r="C49" s="42"/>
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -6691,7 +6925,7 @@
       <c r="B50" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="31"/>
+      <c r="C50" s="42"/>
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -6699,7 +6933,7 @@
       <c r="B51" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="42"/>
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6707,7 +6941,7 @@
       <c r="B52" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="43"/>
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6715,7 +6949,7 @@
       <c r="B53" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="41" t="s">
         <v>152</v>
       </c>
       <c r="F53" s="23"/>
@@ -6725,7 +6959,7 @@
       <c r="B54" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="31"/>
+      <c r="C54" s="42"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -6733,7 +6967,7 @@
       <c r="B55" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="42"/>
       <c r="F55" s="23"/>
       <c r="H55" s="23"/>
     </row>
@@ -6742,7 +6976,7 @@
       <c r="B56" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="43"/>
       <c r="F56" s="23"/>
       <c r="G56" s="20"/>
       <c r="H56" s="23"/>
@@ -6752,7 +6986,7 @@
       <c r="B57" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="41" t="s">
         <v>153</v>
       </c>
       <c r="F57" s="23"/>
@@ -6764,7 +6998,7 @@
       <c r="B58" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="42"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -6774,7 +7008,7 @@
       <c r="B59" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="42"/>
       <c r="F59" s="23"/>
       <c r="G59" s="18"/>
       <c r="H59" s="23"/>
@@ -6784,7 +7018,7 @@
       <c r="B60" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="42"/>
       <c r="F60" s="23"/>
       <c r="G60" s="18"/>
       <c r="H60" s="23"/>
@@ -6794,7 +7028,7 @@
       <c r="B61" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="32"/>
+      <c r="C61" s="43"/>
       <c r="F61" s="23"/>
       <c r="G61" s="18"/>
       <c r="H61" s="23"/>
@@ -6804,7 +7038,7 @@
       <c r="B62" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="41" t="s">
         <v>157</v>
       </c>
       <c r="F62" s="23"/>
@@ -6816,7 +7050,7 @@
       <c r="B63" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="42"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
@@ -6826,7 +7060,7 @@
       <c r="B64" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="31"/>
+      <c r="C64" s="42"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
@@ -6836,7 +7070,7 @@
       <c r="B65" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="41" t="s">
         <v>161</v>
       </c>
       <c r="F65" s="23"/>
@@ -6848,7 +7082,7 @@
       <c r="B66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="31"/>
+      <c r="C66" s="42"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -6858,7 +7092,7 @@
       <c r="B67" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="31"/>
+      <c r="C67" s="42"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
@@ -6868,7 +7102,7 @@
       <c r="B68" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="31"/>
+      <c r="C68" s="42"/>
       <c r="F68" s="23"/>
       <c r="G68" s="18"/>
       <c r="H68" s="23"/>
@@ -6878,7 +7112,7 @@
       <c r="B69" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="31"/>
+      <c r="C69" s="42"/>
       <c r="F69" s="23"/>
       <c r="G69" s="18"/>
       <c r="H69" s="23"/>
@@ -6888,7 +7122,7 @@
       <c r="B70" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="31"/>
+      <c r="C70" s="42"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
@@ -6898,7 +7132,7 @@
       <c r="B71" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="42"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
@@ -6908,7 +7142,7 @@
       <c r="B72" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="31"/>
+      <c r="C72" s="42"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -6918,7 +7152,7 @@
       <c r="B73" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="42"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
@@ -6927,7 +7161,7 @@
       <c r="B74" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="31"/>
+      <c r="C74" s="42"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
@@ -6937,7 +7171,7 @@
       <c r="B75" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="31"/>
+      <c r="C75" s="42"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -6947,7 +7181,7 @@
       <c r="B76" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="42"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -6957,7 +7191,7 @@
       <c r="B77" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="31"/>
+      <c r="C77" s="42"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
@@ -6967,7 +7201,7 @@
       <c r="B78" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="42"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -6977,7 +7211,7 @@
       <c r="B79" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="43"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
@@ -6987,7 +7221,7 @@
       <c r="B80" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="41" t="s">
         <v>163</v>
       </c>
       <c r="F80" s="23"/>
@@ -6999,7 +7233,7 @@
       <c r="B81" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="42"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
@@ -7009,7 +7243,7 @@
       <c r="B82" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="42"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
@@ -7019,7 +7253,7 @@
       <c r="B83" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="31"/>
+      <c r="C83" s="42"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
@@ -7029,7 +7263,7 @@
       <c r="B84" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="31"/>
+      <c r="C84" s="42"/>
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
@@ -7039,7 +7273,7 @@
       <c r="B85" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="31"/>
+      <c r="C85" s="42"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
@@ -7049,7 +7283,7 @@
       <c r="B86" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="31"/>
+      <c r="C86" s="42"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
@@ -7059,7 +7293,7 @@
       <c r="B87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="31"/>
+      <c r="C87" s="42"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
@@ -7069,7 +7303,7 @@
       <c r="B88" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="42"/>
       <c r="F88" s="23"/>
       <c r="G88" s="18"/>
       <c r="H88" s="23"/>
@@ -7079,7 +7313,7 @@
       <c r="B89" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="31"/>
+      <c r="C89" s="42"/>
       <c r="F89" s="23"/>
       <c r="G89" s="18"/>
       <c r="H89" s="23"/>
@@ -7089,7 +7323,7 @@
       <c r="B90" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="31"/>
+      <c r="C90" s="42"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
@@ -7099,7 +7333,7 @@
       <c r="B91" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="42"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
@@ -7109,7 +7343,7 @@
       <c r="B92" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="31"/>
+      <c r="C92" s="42"/>
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
@@ -7119,7 +7353,7 @@
       <c r="B93" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="31"/>
+      <c r="C93" s="42"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
@@ -7129,7 +7363,7 @@
       <c r="B94" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="31"/>
+      <c r="C94" s="42"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
@@ -7139,7 +7373,7 @@
       <c r="B95" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="31"/>
+      <c r="C95" s="42"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
@@ -7149,7 +7383,7 @@
       <c r="B96" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C96" s="31"/>
+      <c r="C96" s="42"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
@@ -7159,7 +7393,7 @@
       <c r="B97" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="42"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
@@ -7169,7 +7403,7 @@
       <c r="B98" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="31"/>
+      <c r="C98" s="42"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
@@ -7179,7 +7413,7 @@
       <c r="B99" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="31"/>
+      <c r="C99" s="42"/>
       <c r="F99" s="23"/>
       <c r="G99" s="20"/>
       <c r="H99" s="23"/>
@@ -7189,7 +7423,7 @@
       <c r="B100" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="31"/>
+      <c r="C100" s="42"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
@@ -7199,7 +7433,7 @@
       <c r="B101" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="31"/>
+      <c r="C101" s="42"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
@@ -7209,7 +7443,7 @@
       <c r="B102" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="31"/>
+      <c r="C102" s="42"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
@@ -7219,7 +7453,7 @@
       <c r="B103" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="31"/>
+      <c r="C103" s="42"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="23"/>
@@ -7229,7 +7463,7 @@
       <c r="B104" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="31"/>
+      <c r="C104" s="42"/>
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
       <c r="H104" s="23"/>
@@ -7239,7 +7473,7 @@
       <c r="B105" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C105" s="31"/>
+      <c r="C105" s="42"/>
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
       <c r="H105" s="23"/>
@@ -7249,7 +7483,7 @@
       <c r="B106" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="31"/>
+      <c r="C106" s="42"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23"/>
       <c r="H106" s="23"/>
@@ -7259,7 +7493,7 @@
       <c r="B107" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C107" s="31"/>
+      <c r="C107" s="42"/>
       <c r="F107" s="23"/>
       <c r="G107" s="20"/>
       <c r="H107" s="23"/>
@@ -7269,7 +7503,7 @@
       <c r="B108" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C108" s="31"/>
+      <c r="C108" s="42"/>
       <c r="F108" s="23"/>
       <c r="G108" s="20"/>
       <c r="H108" s="23"/>
@@ -7279,7 +7513,7 @@
       <c r="B109" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C109" s="31"/>
+      <c r="C109" s="42"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23"/>
       <c r="H109" s="23"/>
@@ -7289,7 +7523,7 @@
       <c r="B110" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C110" s="31"/>
+      <c r="C110" s="42"/>
       <c r="F110" s="23"/>
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
@@ -7299,7 +7533,7 @@
       <c r="B111" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="31"/>
+      <c r="C111" s="42"/>
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
       <c r="H111" s="23"/>
@@ -7309,7 +7543,7 @@
       <c r="B112" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="32"/>
+      <c r="C112" s="43"/>
       <c r="F112" s="23"/>
       <c r="G112" s="23"/>
       <c r="H112" s="23"/>
@@ -7374,7 +7608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -7417,309 +7651,309 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="45" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="38">
         <v>20</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="44"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="46" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="46">
-        <v>1</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44"/>
+      <c r="F3" s="39">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="45" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="38">
         <v>5</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="38">
         <v>23</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="41" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="38">
         <v>16</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="45" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="F7" s="45">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45"/>
+      <c r="F7" s="38">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="45" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="F8" s="45">
-        <v>1</v>
-      </c>
-      <c r="G8" s="45"/>
+      <c r="F8" s="38">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="38">
         <v>3</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <v>3</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="45">
-        <v>1</v>
-      </c>
-      <c r="G11" s="45"/>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="38">
         <v>7</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="38">
         <v>4</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="38">
         <v>2</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="F15" s="45">
-        <v>1</v>
-      </c>
-      <c r="G15" s="45"/>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="38">
         <v>3</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="F17" s="45">
-        <v>1</v>
-      </c>
-      <c r="G17" s="45"/>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="F18" s="45">
-        <v>1</v>
-      </c>
-      <c r="G18" s="45"/>
+      <c r="F18" s="38">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="38">
         <v>18</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="38">
         <v>8</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="46" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="F21" s="45">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45"/>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="46" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="F22" s="45">
-        <v>1</v>
-      </c>
-      <c r="G22" s="45"/>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="46" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="F23" s="45">
-        <v>1</v>
-      </c>
-      <c r="G23" s="45"/>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -7730,7 +7964,7 @@
       <c r="D24" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="39" t="s">
         <v>342</v>
       </c>
       <c r="F24">
@@ -7738,12 +7972,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="29"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="34" t="s">
         <v>372</v>
       </c>
       <c r="F25">
@@ -7751,7 +7985,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="23" t="s">
         <v>343</v>
       </c>
@@ -7761,10 +7995,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="39" t="s">
         <v>412</v>
       </c>
       <c r="F27">
@@ -7772,10 +8006,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="39" t="s">
         <v>413</v>
       </c>
       <c r="F28">
@@ -7783,10 +8017,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="39" t="s">
         <v>414</v>
       </c>
       <c r="F29">
@@ -7845,7 +8079,7 @@
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="39" t="s">
         <v>419</v>
       </c>
       <c r="F33">
@@ -7857,7 +8091,7 @@
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="39" t="s">
         <v>418</v>
       </c>
       <c r="F34">
@@ -7869,7 +8103,7 @@
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="39" t="s">
         <v>417</v>
       </c>
       <c r="F35">
@@ -7879,7 +8113,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="C36" s="23"/>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="39" t="s">
         <v>416</v>
       </c>
       <c r="F36">
@@ -7919,7 +8153,7 @@
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="39" t="s">
         <v>422</v>
       </c>
       <c r="F39">
@@ -7931,7 +8165,7 @@
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="39" t="s">
         <v>421</v>
       </c>
       <c r="F40">
@@ -7943,7 +8177,7 @@
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="39" t="s">
         <v>420</v>
       </c>
       <c r="F41">
@@ -7969,19 +8203,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="29" t="s">
         <v>331</v>
       </c>
       <c r="F43" t="s">
@@ -7989,11 +8223,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="46" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="39" t="s">
         <v>423</v>
       </c>
       <c r="F44">
@@ -8001,11 +8235,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="46" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="39" t="s">
         <v>424</v>
       </c>
       <c r="F45">
@@ -8013,11 +8247,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="46" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="39" t="s">
         <v>425</v>
       </c>
       <c r="F46">
@@ -8025,11 +8259,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="46" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="39" t="s">
         <v>426</v>
       </c>
       <c r="F47">
@@ -8037,11 +8271,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="46" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="39" t="s">
         <v>427</v>
       </c>
       <c r="F48">
@@ -8049,11 +8283,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="46" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="39" t="s">
         <v>428</v>
       </c>
       <c r="F49">
@@ -8061,11 +8295,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="46" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="39" t="s">
         <v>429</v>
       </c>
       <c r="F50">
@@ -8073,11 +8307,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="46" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="39" t="s">
         <v>430</v>
       </c>
       <c r="F51">
@@ -8085,17 +8319,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="31" t="s">
         <v>332</v>
       </c>
       <c r="F52">
@@ -8103,11 +8337,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="46" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="39" t="s">
         <v>431</v>
       </c>
       <c r="F53">
@@ -8115,11 +8349,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="46" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="39" t="s">
         <v>432</v>
       </c>
       <c r="F54">
@@ -8127,11 +8361,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="46" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="39" t="s">
         <v>433</v>
       </c>
       <c r="F55">
@@ -8139,11 +8373,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="46" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="39" t="s">
         <v>434</v>
       </c>
       <c r="F56">
@@ -8151,11 +8385,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="46" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="39" t="s">
         <v>435</v>
       </c>
       <c r="F57">
@@ -8163,11 +8397,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="46" t="s">
+      <c r="A58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="39" t="s">
         <v>436</v>
       </c>
       <c r="F58">
@@ -8175,11 +8409,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="46" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="39" t="s">
         <v>437</v>
       </c>
       <c r="F59">
@@ -8187,19 +8421,19 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="31" t="s">
         <v>333</v>
       </c>
       <c r="F60">
@@ -8207,13 +8441,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="37" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="E61" s="37" t="s">
+      <c r="E61" s="30" t="s">
         <v>375</v>
       </c>
       <c r="F61">
@@ -8221,11 +8455,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="46" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="39" t="s">
         <v>442</v>
       </c>
       <c r="F62">
@@ -8233,11 +8467,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="46" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="39" t="s">
         <v>441</v>
       </c>
       <c r="F63">
@@ -8245,11 +8479,11 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="46" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="39" t="s">
         <v>440</v>
       </c>
       <c r="F64">
@@ -8257,11 +8491,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="46" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="39" t="s">
         <v>439</v>
       </c>
       <c r="F65">
@@ -8269,11 +8503,11 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="46" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="39" t="s">
         <v>438</v>
       </c>
       <c r="F66">
@@ -8286,7 +8520,7 @@
         <v>346</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="42"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="23" t="s">
         <v>346</v>
       </c>
@@ -8298,8 +8532,8 @@
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="46" t="s">
+      <c r="D68" s="35"/>
+      <c r="E68" s="39" t="s">
         <v>443</v>
       </c>
       <c r="F68">
@@ -8310,8 +8544,8 @@
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="46" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="39" t="s">
         <v>444</v>
       </c>
       <c r="F69">
@@ -8322,8 +8556,8 @@
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="46" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="39" t="s">
         <v>445</v>
       </c>
       <c r="F70">
@@ -8334,8 +8568,8 @@
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="46" t="s">
+      <c r="D71" s="35"/>
+      <c r="E71" s="39" t="s">
         <v>446</v>
       </c>
       <c r="F71">
@@ -8346,8 +8580,8 @@
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="46" t="s">
+      <c r="D72" s="35"/>
+      <c r="E72" s="39" t="s">
         <v>447</v>
       </c>
       <c r="F72">
@@ -8377,7 +8611,7 @@
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="39" t="s">
         <v>450</v>
       </c>
       <c r="F74">
@@ -8389,7 +8623,7 @@
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="39" t="s">
         <v>449</v>
       </c>
       <c r="F75">
@@ -8401,7 +8635,7 @@
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="39" t="s">
         <v>448</v>
       </c>
       <c r="F76">
@@ -8427,7 +8661,7 @@
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
-      <c r="E78" s="46" t="s">
+      <c r="E78" s="39" t="s">
         <v>451</v>
       </c>
       <c r="F78">
@@ -8439,7 +8673,7 @@
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="39" t="s">
         <v>452</v>
       </c>
       <c r="F79">
@@ -8453,7 +8687,7 @@
       <c r="D80" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="E80" s="46" t="s">
+      <c r="E80" s="39" t="s">
         <v>377</v>
       </c>
       <c r="F80">
@@ -8465,7 +8699,7 @@
       <c r="B81" s="23"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="39" t="s">
         <v>454</v>
       </c>
       <c r="F81">
@@ -8477,7 +8711,7 @@
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
-      <c r="E82" s="46" t="s">
+      <c r="E82" s="39" t="s">
         <v>453</v>
       </c>
       <c r="F82">
@@ -8495,7 +8729,7 @@
       <c r="D83" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E83" s="46" t="s">
+      <c r="E83" s="39" t="s">
         <v>359</v>
       </c>
       <c r="F83">
@@ -8563,7 +8797,7 @@
         <v>348</v>
       </c>
       <c r="C88" s="23"/>
-      <c r="D88" s="42"/>
+      <c r="D88" s="35"/>
       <c r="F88">
         <v>0</v>
       </c>
@@ -8572,8 +8806,8 @@
       <c r="A89" s="23"/>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="46" t="s">
+      <c r="D89" s="35"/>
+      <c r="E89" s="39" t="s">
         <v>459</v>
       </c>
       <c r="F89">
@@ -8584,8 +8818,8 @@
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="46" t="s">
+      <c r="D90" s="35"/>
+      <c r="E90" s="39" t="s">
         <v>458</v>
       </c>
       <c r="F90">
@@ -8596,8 +8830,8 @@
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="46" t="s">
+      <c r="D91" s="35"/>
+      <c r="E91" s="39" t="s">
         <v>457</v>
       </c>
       <c r="F91">
@@ -8608,10 +8842,10 @@
       <c r="A92" s="23"/>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="E92" s="35" t="s">
         <v>381</v>
       </c>
       <c r="F92">
@@ -8622,8 +8856,8 @@
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="46" t="s">
+      <c r="D93" s="35"/>
+      <c r="E93" s="39" t="s">
         <v>456</v>
       </c>
       <c r="F93">
@@ -8636,7 +8870,7 @@
         <v>349</v>
       </c>
       <c r="C94" s="23"/>
-      <c r="D94" s="42"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="23" t="s">
         <v>349</v>
       </c>
@@ -8648,8 +8882,8 @@
       <c r="A95" s="23"/>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="46" t="s">
+      <c r="D95" s="35"/>
+      <c r="E95" s="39" t="s">
         <v>460</v>
       </c>
       <c r="F95">
@@ -8660,8 +8894,8 @@
       <c r="A96" s="23"/>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="46" t="s">
+      <c r="D96" s="35"/>
+      <c r="E96" s="39" t="s">
         <v>461</v>
       </c>
       <c r="F96">
@@ -8669,22 +8903,22 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="31" t="s">
         <v>334</v>
       </c>
       <c r="C97" s="23"/>
-      <c r="D97" s="42"/>
+      <c r="D97" s="35"/>
       <c r="F97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="38"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="46" t="s">
+      <c r="C98" s="31"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="39" t="s">
         <v>462</v>
       </c>
       <c r="F98">
@@ -8692,9 +8926,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="38"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="46" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="39" t="s">
         <v>463</v>
       </c>
       <c r="F99">
@@ -8702,9 +8936,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="38"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="46" t="s">
+      <c r="C100" s="31"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="39" t="s">
         <v>464</v>
       </c>
       <c r="F100">
@@ -8712,9 +8946,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="38"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="46" t="s">
+      <c r="C101" s="31"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="39" t="s">
         <v>465</v>
       </c>
       <c r="F101">
@@ -8722,9 +8956,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="38"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="46" t="s">
+      <c r="C102" s="31"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="39" t="s">
         <v>466</v>
       </c>
       <c r="F102">
@@ -8732,9 +8966,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="38"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="46" t="s">
+      <c r="C103" s="31"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F103">
@@ -8742,9 +8976,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="38"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="46" t="s">
+      <c r="C104" s="31"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="39" t="s">
         <v>468</v>
       </c>
       <c r="F104">
@@ -8752,9 +8986,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="38"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="46" t="s">
+      <c r="C105" s="31"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="39" t="s">
         <v>469</v>
       </c>
       <c r="F105">
@@ -8762,9 +8996,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="38"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="46" t="s">
+      <c r="C106" s="31"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="39" t="s">
         <v>470</v>
       </c>
       <c r="F106">
@@ -8772,13 +9006,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="42" t="s">
+      <c r="A107" s="36"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="35" t="s">
         <v>380</v>
       </c>
       <c r="F107">
@@ -8786,11 +9020,11 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="46" t="s">
+      <c r="A108" s="36"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="39" t="s">
         <v>471</v>
       </c>
       <c r="F108">
@@ -8798,11 +9032,11 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="46" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="39" t="s">
         <v>472</v>
       </c>
       <c r="F109">
@@ -8810,11 +9044,11 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="46" t="s">
+      <c r="A110" s="36"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="39" t="s">
         <v>473</v>
       </c>
       <c r="F110">
@@ -8822,11 +9056,11 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="46" t="s">
+      <c r="A111" s="36"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="39" t="s">
         <v>474</v>
       </c>
       <c r="F111">
@@ -8834,11 +9068,11 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="46" t="s">
+      <c r="A112" s="36"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="39" t="s">
         <v>475</v>
       </c>
       <c r="F112">
@@ -8846,11 +9080,11 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="46" t="s">
+      <c r="A113" s="36"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="39" t="s">
         <v>476</v>
       </c>
       <c r="F113">
@@ -8858,11 +9092,11 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="46" t="s">
+      <c r="A114" s="36"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="39" t="s">
         <v>477</v>
       </c>
       <c r="F114">
@@ -8870,11 +9104,11 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="46" t="s">
+      <c r="A115" s="36"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="39" t="s">
         <v>478</v>
       </c>
       <c r="F115">
@@ -8882,13 +9116,13 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="42" t="s">
+      <c r="A116" s="36"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="E116" s="42" t="s">
+      <c r="E116" s="35" t="s">
         <v>382</v>
       </c>
       <c r="F116">
@@ -8896,7 +9130,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E117" s="46" t="s">
+      <c r="E117" s="39" t="s">
         <v>479</v>
       </c>
       <c r="F117">
@@ -8904,11 +9138,11 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="46" t="s">
+      <c r="A118" s="36"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="39" t="s">
         <v>480</v>
       </c>
       <c r="F118">
@@ -8916,11 +9150,11 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="46" t="s">
+      <c r="A119" s="36"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="39" t="s">
         <v>481</v>
       </c>
       <c r="F119">
@@ -8928,11 +9162,11 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="46" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="39" t="s">
         <v>482</v>
       </c>
       <c r="F120">
@@ -8940,11 +9174,11 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="46" t="s">
+      <c r="A121" s="36"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="39" t="s">
         <v>483</v>
       </c>
       <c r="F121">
@@ -8952,11 +9186,11 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="46" t="s">
+      <c r="A122" s="36"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="39" t="s">
         <v>484</v>
       </c>
       <c r="F122">
@@ -8964,13 +9198,13 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="42" t="s">
+      <c r="A123" s="36"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="E123" s="42" t="s">
+      <c r="E123" s="35" t="s">
         <v>383</v>
       </c>
       <c r="F123">
@@ -8978,19 +9212,19 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D124" s="38" t="s">
+      <c r="D124" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E124" s="38" t="s">
+      <c r="E124" s="31" t="s">
         <v>335</v>
       </c>
       <c r="F124">
@@ -8998,28 +9232,28 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="46" t="s">
+      <c r="A125" s="36"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="F125" s="42">
+      <c r="F125" s="35">
         <v>5</v>
       </c>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="37" t="s">
+      <c r="A126" s="33"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="E126" s="37" t="s">
+      <c r="E126" s="30" t="s">
         <v>384</v>
       </c>
       <c r="F126">
@@ -9032,7 +9266,7 @@
         <v>350</v>
       </c>
       <c r="C127" s="23"/>
-      <c r="D127" s="42"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="23" t="s">
         <v>535</v>
       </c>
@@ -9044,8 +9278,8 @@
       <c r="A128" s="23"/>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="46" t="s">
+      <c r="D128" s="35"/>
+      <c r="E128" s="39" t="s">
         <v>486</v>
       </c>
       <c r="F128">
@@ -9058,8 +9292,8 @@
         <v>351</v>
       </c>
       <c r="C129" s="23"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="46" t="s">
+      <c r="D129" s="35"/>
+      <c r="E129" s="39" t="s">
         <v>351</v>
       </c>
       <c r="F129">
@@ -9070,8 +9304,8 @@
       <c r="A130" s="23"/>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="46" t="s">
+      <c r="D130" s="35"/>
+      <c r="E130" s="39" t="s">
         <v>487</v>
       </c>
       <c r="F130">
@@ -9082,8 +9316,8 @@
       <c r="A131" s="23"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="46" t="s">
+      <c r="D131" s="35"/>
+      <c r="E131" s="39" t="s">
         <v>488</v>
       </c>
       <c r="F131">
@@ -9099,7 +9333,7 @@
       <c r="D132" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="E132" s="46" t="s">
+      <c r="E132" s="39" t="s">
         <v>352</v>
       </c>
       <c r="F132">
@@ -9111,7 +9345,7 @@
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
-      <c r="E133" s="46" t="s">
+      <c r="E133" s="39" t="s">
         <v>489</v>
       </c>
       <c r="F133">
@@ -9119,19 +9353,19 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D134" s="42" t="s">
+      <c r="D134" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="E134" s="42" t="s">
+      <c r="E134" s="35" t="s">
         <v>336</v>
       </c>
       <c r="F134">
@@ -9142,11 +9376,11 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="46" t="s">
+      <c r="A135" s="33"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="39" t="s">
         <v>494</v>
       </c>
       <c r="F135">
@@ -9154,11 +9388,11 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="46" t="s">
+      <c r="A136" s="33"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="39" t="s">
         <v>493</v>
       </c>
       <c r="F136">
@@ -9166,11 +9400,11 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="46" t="s">
+      <c r="A137" s="33"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="39" t="s">
         <v>492</v>
       </c>
       <c r="F137">
@@ -9178,11 +9412,11 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="42"/>
-      <c r="E138" s="46" t="s">
+      <c r="A138" s="33"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="39" t="s">
         <v>491</v>
       </c>
       <c r="F138">
@@ -9190,11 +9424,11 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="46" t="s">
+      <c r="A139" s="33"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="39" t="s">
         <v>490</v>
       </c>
       <c r="F139">
@@ -9202,17 +9436,17 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="37" t="s">
+      <c r="A140" s="33"/>
+      <c r="B140" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C140" s="37" t="s">
+      <c r="C140" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="D140" s="42" t="s">
+      <c r="D140" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="35" t="s">
         <v>356</v>
       </c>
       <c r="F140">
@@ -9223,17 +9457,17 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
-      <c r="B141" s="38" t="s">
+      <c r="A141" s="31"/>
+      <c r="B141" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D141" s="42" t="s">
+      <c r="D141" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="35" t="s">
         <v>353</v>
       </c>
       <c r="F141">
@@ -9241,11 +9475,11 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="42"/>
-      <c r="E142" s="46" t="s">
+      <c r="A142" s="31"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="39" t="s">
         <v>495</v>
       </c>
       <c r="F142">
@@ -9253,11 +9487,11 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="42"/>
-      <c r="E143" s="46" t="s">
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="39" t="s">
         <v>496</v>
       </c>
       <c r="F143">
@@ -9265,15 +9499,15 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="36" t="s">
+      <c r="A144" s="29" t="s">
         <v>337</v>
       </c>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
-      <c r="D144" s="42" t="s">
+      <c r="D144" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="E144" s="42" t="s">
+      <c r="E144" s="35" t="s">
         <v>337</v>
       </c>
       <c r="F144">
@@ -9281,13 +9515,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="36"/>
+      <c r="A145" s="29"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
-      <c r="D145" s="42" t="s">
+      <c r="D145" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="E145" s="42" t="s">
+      <c r="E145" s="35" t="s">
         <v>385</v>
       </c>
       <c r="F145">
@@ -9295,15 +9529,15 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="36" t="s">
+      <c r="A146" s="29" t="s">
         <v>338</v>
       </c>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
-      <c r="D146" s="42" t="s">
+      <c r="D146" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="E146" s="42" t="s">
+      <c r="E146" s="35" t="s">
         <v>386</v>
       </c>
       <c r="F146">
@@ -9311,19 +9545,19 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="D147" s="42" t="s">
+      <c r="D147" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="E147" s="42" t="s">
+      <c r="E147" s="35" t="s">
         <v>339</v>
       </c>
       <c r="F147">
@@ -9331,10 +9565,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="42"/>
+      <c r="A148" s="33"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="35"/>
       <c r="E148" t="s">
         <v>497</v>
       </c>
@@ -9345,10 +9579,10 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="E149" s="42" t="s">
+      <c r="E149" s="35" t="s">
         <v>387</v>
       </c>
       <c r="F149">
@@ -9358,8 +9592,8 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
-      <c r="D150" s="42"/>
-      <c r="E150" s="46" t="s">
+      <c r="D150" s="35"/>
+      <c r="E150" s="39" t="s">
         <v>498</v>
       </c>
       <c r="F150">
@@ -9369,8 +9603,8 @@
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="46" t="s">
+      <c r="D151" s="35"/>
+      <c r="E151" s="39" t="s">
         <v>499</v>
       </c>
       <c r="F151">
@@ -9380,8 +9614,8 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="46" t="s">
+      <c r="D152" s="35"/>
+      <c r="E152" s="39" t="s">
         <v>500</v>
       </c>
       <c r="F152">
@@ -9389,10 +9623,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D153" s="42" t="s">
+      <c r="D153" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E153" s="42" t="s">
+      <c r="E153" s="35" t="s">
         <v>388</v>
       </c>
       <c r="F153">
@@ -9400,8 +9634,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D154" s="42"/>
-      <c r="E154" s="46" t="s">
+      <c r="D154" s="35"/>
+      <c r="E154" s="39" t="s">
         <v>501</v>
       </c>
       <c r="F154">
@@ -9409,8 +9643,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D155" s="42"/>
-      <c r="E155" s="46" t="s">
+      <c r="D155" s="35"/>
+      <c r="E155" s="39" t="s">
         <v>502</v>
       </c>
       <c r="F155">
@@ -9418,8 +9652,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D156" s="42"/>
-      <c r="E156" s="46" t="s">
+      <c r="D156" s="35"/>
+      <c r="E156" s="39" t="s">
         <v>503</v>
       </c>
       <c r="F156">
@@ -9427,8 +9661,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D157" s="42"/>
-      <c r="E157" s="46" t="s">
+      <c r="D157" s="35"/>
+      <c r="E157" s="39" t="s">
         <v>504</v>
       </c>
       <c r="F157">
@@ -9436,8 +9670,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D158" s="42"/>
-      <c r="E158" s="46" t="s">
+      <c r="D158" s="35"/>
+      <c r="E158" s="39" t="s">
         <v>505</v>
       </c>
       <c r="F158">
@@ -9445,8 +9679,8 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D159" s="42"/>
-      <c r="E159" s="46" t="s">
+      <c r="D159" s="35"/>
+      <c r="E159" s="39" t="s">
         <v>506</v>
       </c>
       <c r="F159">
@@ -9454,8 +9688,8 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D160" s="42"/>
-      <c r="E160" s="46" t="s">
+      <c r="D160" s="35"/>
+      <c r="E160" s="39" t="s">
         <v>507</v>
       </c>
       <c r="F160">
@@ -9463,8 +9697,8 @@
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D161" s="42"/>
-      <c r="E161" s="46" t="s">
+      <c r="D161" s="35"/>
+      <c r="E161" s="39" t="s">
         <v>511</v>
       </c>
       <c r="F161">
@@ -9472,8 +9706,8 @@
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D162" s="42"/>
-      <c r="E162" s="46" t="s">
+      <c r="D162" s="35"/>
+      <c r="E162" s="39" t="s">
         <v>510</v>
       </c>
       <c r="F162">
@@ -9481,8 +9715,8 @@
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D163" s="42"/>
-      <c r="E163" s="46" t="s">
+      <c r="D163" s="35"/>
+      <c r="E163" s="39" t="s">
         <v>509</v>
       </c>
       <c r="F163">
@@ -9490,7 +9724,7 @@
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E164" s="46" t="s">
+      <c r="E164" s="39" t="s">
         <v>508</v>
       </c>
       <c r="F164">
@@ -9498,10 +9732,10 @@
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="42" t="s">
+      <c r="D165" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="E165" s="42" t="s">
+      <c r="E165" s="35" t="s">
         <v>389</v>
       </c>
       <c r="F165">
@@ -9509,8 +9743,8 @@
       </c>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D166" s="42"/>
-      <c r="E166" s="42" t="s">
+      <c r="D166" s="35"/>
+      <c r="E166" s="35" t="s">
         <v>512</v>
       </c>
       <c r="F166">
@@ -9518,8 +9752,8 @@
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D167" s="42"/>
-      <c r="E167" s="42" t="s">
+      <c r="D167" s="35"/>
+      <c r="E167" s="35" t="s">
         <v>513</v>
       </c>
       <c r="F167">
@@ -9527,10 +9761,10 @@
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D168" s="42" t="s">
+      <c r="D168" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="E168" s="42" t="s">
+      <c r="E168" s="35" t="s">
         <v>390</v>
       </c>
       <c r="F168">
@@ -9538,8 +9772,8 @@
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D169" s="42"/>
-      <c r="E169" s="42" t="s">
+      <c r="D169" s="35"/>
+      <c r="E169" s="35" t="s">
         <v>515</v>
       </c>
       <c r="F169">
@@ -9547,8 +9781,8 @@
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D170" s="42"/>
-      <c r="E170" s="42" t="s">
+      <c r="D170" s="35"/>
+      <c r="E170" s="35" t="s">
         <v>514</v>
       </c>
       <c r="F170">
@@ -9556,8 +9790,8 @@
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D171" s="42"/>
-      <c r="E171" s="42" t="s">
+      <c r="D171" s="35"/>
+      <c r="E171" s="35" t="s">
         <v>516</v>
       </c>
       <c r="F171">
@@ -9565,8 +9799,8 @@
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D172" s="42"/>
-      <c r="E172" s="46" t="s">
+      <c r="D172" s="35"/>
+      <c r="E172" s="39" t="s">
         <v>517</v>
       </c>
       <c r="F172">
@@ -9574,7 +9808,7 @@
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="46" t="s">
+      <c r="E173" s="39" t="s">
         <v>518</v>
       </c>
       <c r="F173">
@@ -9582,7 +9816,7 @@
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="46" t="s">
+      <c r="E174" s="39" t="s">
         <v>519</v>
       </c>
       <c r="F174">
@@ -9590,7 +9824,7 @@
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="46" t="s">
+      <c r="E175" s="39" t="s">
         <v>520</v>
       </c>
       <c r="F175">
@@ -9598,7 +9832,7 @@
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="46" t="s">
+      <c r="E176" s="39" t="s">
         <v>521</v>
       </c>
       <c r="F176">
@@ -9606,7 +9840,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E177" s="46" t="s">
+      <c r="E177" s="39" t="s">
         <v>522</v>
       </c>
       <c r="F177">
@@ -9614,7 +9848,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E178" s="46" t="s">
+      <c r="E178" s="39" t="s">
         <v>523</v>
       </c>
       <c r="F178">
@@ -9622,7 +9856,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="46" t="s">
+      <c r="E179" s="39" t="s">
         <v>524</v>
       </c>
       <c r="F179">
@@ -9630,7 +9864,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E180" s="46" t="s">
+      <c r="E180" s="39" t="s">
         <v>525</v>
       </c>
       <c r="F180">
@@ -9638,7 +9872,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E181" s="46" t="s">
+      <c r="E181" s="39" t="s">
         <v>526</v>
       </c>
       <c r="F181">
@@ -9646,7 +9880,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E182" s="46" t="s">
+      <c r="E182" s="39" t="s">
         <v>527</v>
       </c>
       <c r="F182">
@@ -9654,10 +9888,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D183" s="42" t="s">
+      <c r="D183" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="35" t="s">
         <v>391</v>
       </c>
       <c r="F183">
@@ -9665,7 +9899,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E184" s="46" t="s">
+      <c r="E184" s="39" t="s">
         <v>528</v>
       </c>
       <c r="F184">
@@ -9673,7 +9907,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E185" s="46" t="s">
+      <c r="E185" s="39" t="s">
         <v>529</v>
       </c>
       <c r="F185">
@@ -9681,13 +9915,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="36" t="s">
+      <c r="A186" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="D186" s="36" t="s">
+      <c r="D186" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E186" s="36" t="s">
+      <c r="E186" s="29" t="s">
         <v>340</v>
       </c>
       <c r="F186">
@@ -9695,7 +9929,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E187" s="46" t="s">
+      <c r="E187" s="39" t="s">
         <v>530</v>
       </c>
       <c r="F187">
@@ -9703,7 +9937,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E188" s="46" t="s">
+      <c r="E188" s="39" t="s">
         <v>531</v>
       </c>
       <c r="F188">
@@ -9711,7 +9945,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E189" s="46" t="s">
+      <c r="E189" s="39" t="s">
         <v>532</v>
       </c>
       <c r="F189">
@@ -9719,7 +9953,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E190" s="46" t="s">
+      <c r="E190" s="39" t="s">
         <v>533</v>
       </c>
       <c r="F190">
@@ -9727,7 +9961,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E191" s="46" t="s">
+      <c r="E191" s="39" t="s">
         <v>534</v>
       </c>
       <c r="F191">
@@ -9741,7 +9975,7 @@
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="46"/>
+      <c r="E194" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
